--- a/Analyzed/try2/data_2020.xlsx
+++ b/Analyzed/try2/data_2020.xlsx
@@ -541,13 +541,13 @@
         <v>2083.235</v>
       </c>
       <c r="L2">
-        <v>89</v>
+        <v>3115</v>
       </c>
       <c r="M2">
         <v>61.35197739774372</v>
       </c>
       <c r="N2">
-        <v>93.21000000000002</v>
+        <v>2703.09</v>
       </c>
       <c r="O2">
         <v>1439.97</v>
@@ -632,13 +632,13 @@
         <v>1748.681</v>
       </c>
       <c r="L3">
-        <v>84.30000000000001</v>
+        <v>2950.5</v>
       </c>
       <c r="M3">
         <v>55.54493133945658</v>
       </c>
       <c r="N3">
-        <v>30.96</v>
+        <v>897.84</v>
       </c>
       <c r="O3">
         <v>1278.04</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -723,13 +723,13 @@
         <v>1245.797</v>
       </c>
       <c r="L4">
-        <v>81.10000000000001</v>
+        <v>2838.5</v>
       </c>
       <c r="M4">
         <v>52.00614442785211</v>
       </c>
       <c r="N4">
-        <v>36.70000000000001</v>
+        <v>1064.3</v>
       </c>
       <c r="O4">
         <v>1206.72</v>
@@ -814,13 +814,13 @@
         <v>2005.108</v>
       </c>
       <c r="L5">
-        <v>80.90000000000001</v>
+        <v>2831.5</v>
       </c>
       <c r="M5">
         <v>60.71672249482945</v>
       </c>
       <c r="N5">
-        <v>-19.32000000000001</v>
+        <v>-560.2800000000001</v>
       </c>
       <c r="O5">
         <v>1182.78</v>
@@ -853,19 +853,19 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
         <v>6</v>
       </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>7</v>
-      </c>
       <c r="AC5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1963.888</v>
       </c>
       <c r="L6">
-        <v>76.5</v>
+        <v>2677.5</v>
       </c>
       <c r="M6">
         <v>69.74238253623452</v>
       </c>
       <c r="N6">
-        <v>-11.84000000000001</v>
+        <v>-343.3600000000002</v>
       </c>
       <c r="O6">
         <v>1315.16</v>
@@ -944,19 +944,19 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1964.677</v>
       </c>
       <c r="L7">
-        <v>74.2</v>
+        <v>2597</v>
       </c>
       <c r="M7">
         <v>76.33685838256933</v>
       </c>
       <c r="N7">
-        <v>34.05</v>
+        <v>987.4499999999999</v>
       </c>
       <c r="O7">
         <v>1152.05</v>
@@ -1035,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1857.414</v>
       </c>
       <c r="L8">
-        <v>75.90000000000001</v>
+        <v>2656.5</v>
       </c>
       <c r="M8">
         <v>67.08462565842638</v>
       </c>
       <c r="N8">
-        <v>35.31</v>
+        <v>1023.99</v>
       </c>
       <c r="O8">
         <v>1082.7</v>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>1954.861</v>
       </c>
       <c r="L9">
-        <v>71.10000000000001</v>
+        <v>2488.5</v>
       </c>
       <c r="M9">
         <v>74.0553309290119</v>
       </c>
       <c r="N9">
-        <v>32.41</v>
+        <v>939.8899999999999</v>
       </c>
       <c r="O9">
         <v>1222.06</v>
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>1800.786</v>
       </c>
       <c r="L10">
-        <v>62.7</v>
+        <v>2194.5</v>
       </c>
       <c r="M10">
         <v>76.56029818865237</v>
       </c>
       <c r="N10">
-        <v>19.97</v>
+        <v>579.13</v>
       </c>
       <c r="O10">
         <v>1262.62</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1360,13 +1360,13 @@
         <v>2138.842</v>
       </c>
       <c r="L11">
-        <v>55.3</v>
+        <v>1935.5</v>
       </c>
       <c r="M11">
         <v>92.03177262653705</v>
       </c>
       <c r="N11">
-        <v>9.380000000000004</v>
+        <v>272.0200000000001</v>
       </c>
       <c r="O11">
         <v>1292.05</v>
@@ -1402,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
